--- a/text/機能設計書_ビジネスロジック.xlsx
+++ b/text/機能設計書_ビジネスロジック.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6BF3D5-AF73-4DB5-8BB9-E4C41A5BA011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB72ED58-3DB0-4F1B-80BD-B083A5BDA1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1344,9 +1344,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,6 +1354,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2187,47 +2187,47 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2271,65 +2271,65 @@
       <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2373,92 +2373,92 @@
       <c r="F16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2502,65 +2502,65 @@
       <c r="F27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2604,65 +2604,65 @@
       <c r="F35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -2706,68 +2706,84 @@
       <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="9"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F49"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F33"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F6"/>
@@ -2776,22 +2792,6 @@
     <mergeCell ref="G8:G14"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F14"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,7 +2837,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2855,103 +2855,103 @@
       <c r="F2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2995,67 +2995,67 @@
       <c r="F14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3081,7 +3081,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3099,67 +3099,67 @@
       <c r="F22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3203,70 +3203,78 @@
       <c r="F30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="9"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="9"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F28"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F36"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="G2:G12"/>
     <mergeCell ref="B3:F3"/>
@@ -3275,14 +3283,6 @@
     <mergeCell ref="G14:G20"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F20"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F28"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,7 +3328,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3346,65 +3346,65 @@
       <c r="F2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3448,65 +3448,65 @@
       <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3550,65 +3550,65 @@
       <c r="F18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3652,65 +3652,65 @@
       <c r="F26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3754,76 +3754,68 @@
       <c r="F34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F16"/>
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="G34:G40"/>
     <mergeCell ref="B35:F35"/>
@@ -3836,6 +3828,14 @@
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3879,7 +3879,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3897,65 +3897,65 @@
       <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3981,7 +3981,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3999,65 +3999,65 @@
       <c r="F10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4101,65 +4101,65 @@
       <c r="F18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4203,68 +4203,76 @@
       <c r="F26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F32"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="B3:F3"/>
@@ -4273,14 +4281,6 @@
     <mergeCell ref="G10:G16"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/機能設計書_ビジネスロジック.xlsx
+++ b/text/機能設計書_ビジネスロジック.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB72ED58-3DB0-4F1B-80BD-B083A5BDA1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7986855-1D93-44A6-8E69-908233D27736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,6 +1344,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,9 +1357,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2131,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2169,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2187,47 +2187,47 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -2253,7 +2253,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2271,65 +2271,65 @@
       <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2373,92 +2373,92 @@
       <c r="F16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2502,65 +2502,65 @@
       <c r="F27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="8"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -2586,7 +2586,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2604,65 +2604,65 @@
       <c r="F35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="8"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="8"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -2706,68 +2706,84 @@
       <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="8"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="8"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="8"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="8"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="8"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="G8:G14"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F14"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F33"/>
     <mergeCell ref="A35:A41"/>
     <mergeCell ref="G35:G41"/>
     <mergeCell ref="B36:F36"/>
@@ -2776,22 +2792,6 @@
     <mergeCell ref="G43:G49"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F49"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="G8:G14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,7 +2837,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2855,103 +2855,103 @@
       <c r="F2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2977,7 +2977,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2995,67 +2995,67 @@
       <c r="F14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3081,7 +3081,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3099,67 +3099,67 @@
       <c r="F22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -3185,7 +3185,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3203,70 +3203,78 @@
       <c r="F30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="G14:G20"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F20"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="G22:G28"/>
     <mergeCell ref="B23:F23"/>
@@ -3275,14 +3283,6 @@
     <mergeCell ref="G30:G36"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B32:F36"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="G2:G12"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F12"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="G14:G20"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,7 +3328,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3346,65 +3346,65 @@
       <c r="F2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3448,65 +3448,65 @@
       <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -3532,7 +3532,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3550,65 +3550,65 @@
       <c r="F18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3634,7 +3634,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3652,65 +3652,65 @@
       <c r="F26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -3736,7 +3736,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3754,68 +3754,76 @@
       <c r="F34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="8"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="8"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F16"/>
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="G34:G40"/>
     <mergeCell ref="B35:F35"/>
@@ -3828,14 +3836,6 @@
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3879,7 +3879,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3897,65 +3897,65 @@
       <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3981,7 +3981,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3999,65 +3999,65 @@
       <c r="F10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4101,65 +4101,65 @@
       <c r="F18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4203,68 +4203,76 @@
       <c r="F26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="8"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F16"/>
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="G18:G24"/>
     <mergeCell ref="B19:F19"/>
@@ -4273,14 +4281,6 @@
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/text/機能設計書_ビジネスロジック.xlsx
+++ b/text/機能設計書_ビジネスロジック.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7986855-1D93-44A6-8E69-908233D27736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F432AE-C0DD-824E-9D6C-7E34F1BC1EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="18060" windowHeight="15940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTO定義" sheetId="4" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
         <strike/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1168,7 +1168,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1193,7 +1193,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1204,7 +1204,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,17 +1236,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1254,7 +1254,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1263,7 +1263,7 @@
       <strike/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1344,9 +1344,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1361,9 +1358,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1671,21 +1671,21 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1718,14 +1718,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1758,14 +1758,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1798,14 +1798,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -1893,14 +1893,14 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="6" t="s">
         <v>45</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="6" t="s">
         <v>47</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="6" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="6" t="s">
         <v>54</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="6" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="6" t="s">
         <v>57</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="6" t="s">
         <v>58</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="6" t="s">
         <v>59</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -2131,21 +2131,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:A41"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="4" width="22.21875" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2168,8 +2168,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2187,49 +2187,49 @@
       <c r="F2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2252,8 +2252,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2271,67 +2271,67 @@
       <c r="F8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2354,8 +2354,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:7" ht="52.5" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2373,94 +2373,94 @@
       <c r="F16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="10" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -2483,8 +2483,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:7" ht="18.5" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2502,67 +2502,67 @@
       <c r="F27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="10" t="s">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2585,8 +2585,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2604,67 +2604,67 @@
       <c r="F35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="10" t="s">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -2687,8 +2687,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -2706,68 +2706,84 @@
       <c r="F43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="10" t="s">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F41"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F49"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F25"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F33"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F6"/>
@@ -2776,22 +2792,6 @@
     <mergeCell ref="G8:G14"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F14"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="G16:G25"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F25"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="G27:G33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F33"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F41"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F49"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2803,17 +2803,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="6" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="6" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2836,8 +2836,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7" ht="47.5" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2855,105 +2855,105 @@
       <c r="F2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2976,8 +2976,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2995,69 +2995,69 @@
       <c r="F14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="12"/>
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -3080,8 +3080,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3099,69 +3099,69 @@
       <c r="F22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3184,8 +3184,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3203,70 +3203,78 @@
       <c r="F30" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="9"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F28"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="G30:G36"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F36"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="G2:G12"/>
     <mergeCell ref="B3:F3"/>
@@ -3275,14 +3283,6 @@
     <mergeCell ref="G14:G20"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F20"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F28"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="G30:G36"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3297,14 +3297,14 @@
       <selection activeCell="B4" sqref="B4:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="6" width="18.21875" customWidth="1"/>
+    <col min="4" max="6" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3327,8 +3327,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3346,67 +3346,67 @@
       <c r="F2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3429,8 +3429,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3448,67 +3448,67 @@
       <c r="F10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -3531,8 +3531,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3550,67 +3550,67 @@
       <c r="F18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3633,8 +3633,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3652,67 +3652,67 @@
       <c r="F26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3735,8 +3735,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="13" t="s">
         <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3754,76 +3754,68 @@
       <c r="F34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10" t="s">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13"/>
+      <c r="B35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="11" t="s">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="9"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="13"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F8"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="G10:G16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F16"/>
     <mergeCell ref="A34:A40"/>
     <mergeCell ref="G34:G40"/>
     <mergeCell ref="B35:F35"/>
@@ -3836,6 +3828,14 @@
     <mergeCell ref="G26:G32"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3850,12 +3850,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="6" width="23.109375" customWidth="1"/>
+    <col min="2" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3878,8 +3878,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3897,67 +3897,67 @@
       <c r="F2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13"/>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3980,8 +3980,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3999,67 +3999,67 @@
       <c r="F10" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,8 +4082,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:7" ht="30">
+      <c r="A18" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4101,67 +4101,67 @@
       <c r="F18" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10" t="s">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -4184,8 +4184,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="13" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -4203,68 +4203,76 @@
       <c r="F26" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10" t="s">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="13"/>
+      <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="13"/>
+      <c r="B28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="9"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="G18:G24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F32"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="B3:F3"/>
@@ -4273,14 +4281,6 @@
     <mergeCell ref="G10:G16"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="G18:G24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
